--- a/Project-Management/3D-KORN_TaskAllocation.xlsx
+++ b/Project-Management/3D-KORN_TaskAllocation.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17127"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MAIA\SEM 1\Software Engineering\Project 3D-KORN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="41">
   <si>
     <t>LUCA</t>
   </si>
@@ -136,11 +136,23 @@
   <si>
     <t>COMPLETION DATE</t>
   </si>
+  <si>
+    <t>Interface qt with arduino/rasp-pi</t>
+  </si>
+  <si>
+    <t>Pamir</t>
+  </si>
+  <si>
+    <t>Design 3D turn table</t>
+  </si>
+  <si>
+    <t>Plans to collaborate with other teams for a common turn-table</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -291,6 +303,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -326,6 +355,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -481,7 +527,7 @@
   <dimension ref="A1:AA500"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -490,7 +536,7 @@
     <col min="2" max="2" width="16.140625" customWidth="1"/>
     <col min="3" max="3" width="18.7109375" customWidth="1"/>
     <col min="4" max="4" width="17.28515625" customWidth="1"/>
-    <col min="5" max="5" width="45.85546875" customWidth="1"/>
+    <col min="5" max="5" width="57.140625" customWidth="1"/>
     <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.5703125" customWidth="1"/>
     <col min="8" max="8" width="18" bestFit="1" customWidth="1"/>
@@ -632,13 +678,25 @@
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
+      <c r="A5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
+      <c r="F5" s="3">
+        <v>42660</v>
+      </c>
+      <c r="G5" s="3">
+        <v>42665</v>
+      </c>
       <c r="H5" s="1"/>
       <c r="Y5" t="s">
         <v>1</v>
@@ -651,12 +709,24 @@
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+      <c r="A6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="3">
+        <v>42660</v>
+      </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="Y6" t="s">
@@ -674,7 +744,6 @@
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>

--- a/Project-Management/3D-KORN_TaskAllocation.xlsx
+++ b/Project-Management/3D-KORN_TaskAllocation.xlsx
@@ -1,22 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17127"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26812"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Luca/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="20500" windowHeight="7540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="45">
   <si>
     <t>LUCA</t>
   </si>
@@ -148,11 +151,23 @@
   <si>
     <t>Plans to collaborate with other teams for a common turn-table</t>
   </si>
+  <si>
+    <t>Required for letting other groups working on that</t>
+  </si>
+  <si>
+    <t>Studying and developing a crop-function</t>
+  </si>
+  <si>
+    <t>Research documentation for PCL</t>
+  </si>
+  <si>
+    <t>Research on PCL 1.8\found all-in one installer</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -212,7 +227,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -228,7 +243,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -273,9 +288,9 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -303,31 +318,14 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -355,23 +353,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -526,26 +507,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA500"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34.7109375" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" customWidth="1"/>
-    <col min="5" max="5" width="57.140625" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="34.6640625" customWidth="1"/>
+    <col min="2" max="2" width="16.1640625" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" customWidth="1"/>
+    <col min="5" max="5" width="57.1640625" customWidth="1"/>
+    <col min="6" max="6" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5" customWidth="1"/>
     <col min="8" max="8" width="18" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="24.1640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>16</v>
       </c>
@@ -580,7 +561,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>32</v>
       </c>
@@ -615,7 +596,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>34</v>
       </c>
@@ -646,7 +627,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>35</v>
       </c>
@@ -677,7 +658,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>37</v>
       </c>
@@ -708,7 +689,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>39</v>
       </c>
@@ -739,11 +720,22 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>41</v>
+      </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -754,11 +746,19 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -770,11 +770,19 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -783,11 +791,19 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -796,7 +812,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -809,7 +825,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -819,7 +835,7 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -829,7 +845,7 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -839,7 +855,7 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -849,7 +865,7 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -859,7 +875,7 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -869,7 +885,7 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -879,7 +895,7 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -889,7 +905,7 @@
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -899,7 +915,7 @@
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -909,7 +925,7 @@
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -919,7 +935,7 @@
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -929,7 +945,7 @@
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -939,7 +955,7 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -949,7 +965,7 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -959,7 +975,7 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -969,7 +985,7 @@
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -979,7 +995,7 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -989,7 +1005,7 @@
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -999,7 +1015,7 @@
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -1009,7 +1025,7 @@
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -1019,7 +1035,7 @@
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -1029,7 +1045,7 @@
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -1039,7 +1055,7 @@
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -1049,7 +1065,7 @@
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -1059,7 +1075,7 @@
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -1069,7 +1085,7 @@
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -1079,7 +1095,7 @@
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -1089,7 +1105,7 @@
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -1099,7 +1115,7 @@
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -1109,7 +1125,7 @@
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -1119,7 +1135,7 @@
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -1129,7 +1145,7 @@
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -1139,7 +1155,7 @@
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -1149,7 +1165,7 @@
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -1159,7 +1175,7 @@
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -1169,7 +1185,7 @@
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -1179,7 +1195,7 @@
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -1189,7 +1205,7 @@
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -1199,7 +1215,7 @@
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -1209,7 +1225,7 @@
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -1219,7 +1235,7 @@
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -1229,7 +1245,7 @@
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -1239,7 +1255,7 @@
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -1249,7 +1265,7 @@
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -1259,7 +1275,7 @@
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -1269,7 +1285,7 @@
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -1279,7 +1295,7 @@
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -1289,7 +1305,7 @@
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -1299,7 +1315,7 @@
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -1309,7 +1325,7 @@
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -1319,7 +1335,7 @@
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -1329,7 +1345,7 @@
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -1339,7 +1355,7 @@
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -1349,7 +1365,7 @@
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -1359,7 +1375,7 @@
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -1369,7 +1385,7 @@
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -1379,7 +1395,7 @@
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -1389,7 +1405,7 @@
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -1399,7 +1415,7 @@
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -1409,7 +1425,7 @@
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -1419,7 +1435,7 @@
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -1429,7 +1445,7 @@
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -1439,7 +1455,7 @@
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -1449,7 +1465,7 @@
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -1459,7 +1475,7 @@
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -1469,7 +1485,7 @@
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -1479,7 +1495,7 @@
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -1489,7 +1505,7 @@
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -1499,7 +1515,7 @@
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -1509,7 +1525,7 @@
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -1519,7 +1535,7 @@
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -1529,7 +1545,7 @@
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -1539,7 +1555,7 @@
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -1549,7 +1565,7 @@
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -1559,7 +1575,7 @@
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -1569,7 +1585,7 @@
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -1579,7 +1595,7 @@
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -1589,7 +1605,7 @@
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -1599,7 +1615,7 @@
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -1609,7 +1625,7 @@
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -1619,7 +1635,7 @@
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -1629,7 +1645,7 @@
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -1639,7 +1655,7 @@
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -1649,7 +1665,7 @@
       <c r="G95" s="1"/>
       <c r="H95" s="1"/>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -1659,7 +1675,7 @@
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -1669,7 +1685,7 @@
       <c r="G97" s="1"/>
       <c r="H97" s="1"/>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -1679,7 +1695,7 @@
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -1689,7 +1705,7 @@
       <c r="G99" s="1"/>
       <c r="H99" s="1"/>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -1699,7 +1715,7 @@
       <c r="G100" s="1"/>
       <c r="H100" s="1"/>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -1709,7 +1725,7 @@
       <c r="G101" s="1"/>
       <c r="H101" s="1"/>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -1719,7 +1735,7 @@
       <c r="G102" s="1"/>
       <c r="H102" s="1"/>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -1729,7 +1745,7 @@
       <c r="G103" s="1"/>
       <c r="H103" s="1"/>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -1739,7 +1755,7 @@
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -1749,7 +1765,7 @@
       <c r="G105" s="1"/>
       <c r="H105" s="1"/>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -1759,7 +1775,7 @@
       <c r="G106" s="1"/>
       <c r="H106" s="1"/>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -1769,7 +1785,7 @@
       <c r="G107" s="1"/>
       <c r="H107" s="1"/>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -1779,7 +1795,7 @@
       <c r="G108" s="1"/>
       <c r="H108" s="1"/>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -1789,7 +1805,7 @@
       <c r="G109" s="1"/>
       <c r="H109" s="1"/>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -1799,7 +1815,7 @@
       <c r="G110" s="1"/>
       <c r="H110" s="1"/>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -1809,7 +1825,7 @@
       <c r="G111" s="1"/>
       <c r="H111" s="1"/>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -1819,7 +1835,7 @@
       <c r="G112" s="1"/>
       <c r="H112" s="1"/>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -1829,7 +1845,7 @@
       <c r="G113" s="1"/>
       <c r="H113" s="1"/>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -1839,7 +1855,7 @@
       <c r="G114" s="1"/>
       <c r="H114" s="1"/>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -1849,7 +1865,7 @@
       <c r="G115" s="1"/>
       <c r="H115" s="1"/>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -1859,7 +1875,7 @@
       <c r="G116" s="1"/>
       <c r="H116" s="1"/>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -1869,7 +1885,7 @@
       <c r="G117" s="1"/>
       <c r="H117" s="1"/>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -1879,7 +1895,7 @@
       <c r="G118" s="1"/>
       <c r="H118" s="1"/>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -1889,7 +1905,7 @@
       <c r="G119" s="1"/>
       <c r="H119" s="1"/>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -1899,7 +1915,7 @@
       <c r="G120" s="1"/>
       <c r="H120" s="1"/>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -1909,7 +1925,7 @@
       <c r="G121" s="1"/>
       <c r="H121" s="1"/>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -1919,7 +1935,7 @@
       <c r="G122" s="1"/>
       <c r="H122" s="1"/>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -1929,7 +1945,7 @@
       <c r="G123" s="1"/>
       <c r="H123" s="1"/>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -1939,7 +1955,7 @@
       <c r="G124" s="1"/>
       <c r="H124" s="1"/>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -1949,7 +1965,7 @@
       <c r="G125" s="1"/>
       <c r="H125" s="1"/>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -1959,7 +1975,7 @@
       <c r="G126" s="1"/>
       <c r="H126" s="1"/>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -1969,7 +1985,7 @@
       <c r="G127" s="1"/>
       <c r="H127" s="1"/>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -1979,7 +1995,7 @@
       <c r="G128" s="1"/>
       <c r="H128" s="1"/>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -1989,7 +2005,7 @@
       <c r="G129" s="1"/>
       <c r="H129" s="1"/>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -1999,7 +2015,7 @@
       <c r="G130" s="1"/>
       <c r="H130" s="1"/>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -2009,7 +2025,7 @@
       <c r="G131" s="1"/>
       <c r="H131" s="1"/>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -2019,7 +2035,7 @@
       <c r="G132" s="1"/>
       <c r="H132" s="1"/>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -2029,7 +2045,7 @@
       <c r="G133" s="1"/>
       <c r="H133" s="1"/>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -2039,7 +2055,7 @@
       <c r="G134" s="1"/>
       <c r="H134" s="1"/>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -2049,7 +2065,7 @@
       <c r="G135" s="1"/>
       <c r="H135" s="1"/>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -2059,7 +2075,7 @@
       <c r="G136" s="1"/>
       <c r="H136" s="1"/>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -2069,7 +2085,7 @@
       <c r="G137" s="1"/>
       <c r="H137" s="1"/>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -2079,7 +2095,7 @@
       <c r="G138" s="1"/>
       <c r="H138" s="1"/>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -2089,7 +2105,7 @@
       <c r="G139" s="1"/>
       <c r="H139" s="1"/>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -2099,7 +2115,7 @@
       <c r="G140" s="1"/>
       <c r="H140" s="1"/>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
@@ -2109,7 +2125,7 @@
       <c r="G141" s="1"/>
       <c r="H141" s="1"/>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -2119,7 +2135,7 @@
       <c r="G142" s="1"/>
       <c r="H142" s="1"/>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
@@ -2129,7 +2145,7 @@
       <c r="G143" s="1"/>
       <c r="H143" s="1"/>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -2139,7 +2155,7 @@
       <c r="G144" s="1"/>
       <c r="H144" s="1"/>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
@@ -2149,7 +2165,7 @@
       <c r="G145" s="1"/>
       <c r="H145" s="1"/>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
@@ -2159,7 +2175,7 @@
       <c r="G146" s="1"/>
       <c r="H146" s="1"/>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
@@ -2169,7 +2185,7 @@
       <c r="G147" s="1"/>
       <c r="H147" s="1"/>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
@@ -2179,7 +2195,7 @@
       <c r="G148" s="1"/>
       <c r="H148" s="1"/>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
@@ -2189,7 +2205,7 @@
       <c r="G149" s="1"/>
       <c r="H149" s="1"/>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
@@ -2199,7 +2215,7 @@
       <c r="G150" s="1"/>
       <c r="H150" s="1"/>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
@@ -2209,7 +2225,7 @@
       <c r="G151" s="1"/>
       <c r="H151" s="1"/>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
@@ -2219,7 +2235,7 @@
       <c r="G152" s="1"/>
       <c r="H152" s="1"/>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
@@ -2229,7 +2245,7 @@
       <c r="G153" s="1"/>
       <c r="H153" s="1"/>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
@@ -2239,7 +2255,7 @@
       <c r="G154" s="1"/>
       <c r="H154" s="1"/>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
@@ -2249,7 +2265,7 @@
       <c r="G155" s="1"/>
       <c r="H155" s="1"/>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
@@ -2259,7 +2275,7 @@
       <c r="G156" s="1"/>
       <c r="H156" s="1"/>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
@@ -2269,7 +2285,7 @@
       <c r="G157" s="1"/>
       <c r="H157" s="1"/>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
@@ -2279,7 +2295,7 @@
       <c r="G158" s="1"/>
       <c r="H158" s="1"/>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
@@ -2289,7 +2305,7 @@
       <c r="G159" s="1"/>
       <c r="H159" s="1"/>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
@@ -2299,7 +2315,7 @@
       <c r="G160" s="1"/>
       <c r="H160" s="1"/>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
@@ -2309,7 +2325,7 @@
       <c r="G161" s="1"/>
       <c r="H161" s="1"/>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
@@ -2319,7 +2335,7 @@
       <c r="G162" s="1"/>
       <c r="H162" s="1"/>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -2329,7 +2345,7 @@
       <c r="G163" s="1"/>
       <c r="H163" s="1"/>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
@@ -2339,7 +2355,7 @@
       <c r="G164" s="1"/>
       <c r="H164" s="1"/>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
@@ -2349,7 +2365,7 @@
       <c r="G165" s="1"/>
       <c r="H165" s="1"/>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
@@ -2359,7 +2375,7 @@
       <c r="G166" s="1"/>
       <c r="H166" s="1"/>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
@@ -2369,7 +2385,7 @@
       <c r="G167" s="1"/>
       <c r="H167" s="1"/>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
@@ -2379,7 +2395,7 @@
       <c r="G168" s="1"/>
       <c r="H168" s="1"/>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
@@ -2389,7 +2405,7 @@
       <c r="G169" s="1"/>
       <c r="H169" s="1"/>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
@@ -2399,7 +2415,7 @@
       <c r="G170" s="1"/>
       <c r="H170" s="1"/>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
@@ -2409,7 +2425,7 @@
       <c r="G171" s="1"/>
       <c r="H171" s="1"/>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
@@ -2419,7 +2435,7 @@
       <c r="G172" s="1"/>
       <c r="H172" s="1"/>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
@@ -2429,7 +2445,7 @@
       <c r="G173" s="1"/>
       <c r="H173" s="1"/>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
@@ -2439,7 +2455,7 @@
       <c r="G174" s="1"/>
       <c r="H174" s="1"/>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
@@ -2449,7 +2465,7 @@
       <c r="G175" s="1"/>
       <c r="H175" s="1"/>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
@@ -2459,7 +2475,7 @@
       <c r="G176" s="1"/>
       <c r="H176" s="1"/>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
@@ -2469,7 +2485,7 @@
       <c r="G177" s="1"/>
       <c r="H177" s="1"/>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
@@ -2479,7 +2495,7 @@
       <c r="G178" s="1"/>
       <c r="H178" s="1"/>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
@@ -2489,7 +2505,7 @@
       <c r="G179" s="1"/>
       <c r="H179" s="1"/>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
@@ -2499,7 +2515,7 @@
       <c r="G180" s="1"/>
       <c r="H180" s="1"/>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
@@ -2509,7 +2525,7 @@
       <c r="G181" s="1"/>
       <c r="H181" s="1"/>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
@@ -2519,7 +2535,7 @@
       <c r="G182" s="1"/>
       <c r="H182" s="1"/>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
@@ -2529,7 +2545,7 @@
       <c r="G183" s="1"/>
       <c r="H183" s="1"/>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
@@ -2539,7 +2555,7 @@
       <c r="G184" s="1"/>
       <c r="H184" s="1"/>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
@@ -2549,7 +2565,7 @@
       <c r="G185" s="1"/>
       <c r="H185" s="1"/>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
@@ -2559,7 +2575,7 @@
       <c r="G186" s="1"/>
       <c r="H186" s="1"/>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
@@ -2569,7 +2585,7 @@
       <c r="G187" s="1"/>
       <c r="H187" s="1"/>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
@@ -2579,7 +2595,7 @@
       <c r="G188" s="1"/>
       <c r="H188" s="1"/>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
@@ -2589,7 +2605,7 @@
       <c r="G189" s="1"/>
       <c r="H189" s="1"/>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
@@ -2599,7 +2615,7 @@
       <c r="G190" s="1"/>
       <c r="H190" s="1"/>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
@@ -2609,7 +2625,7 @@
       <c r="G191" s="1"/>
       <c r="H191" s="1"/>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
@@ -2619,7 +2635,7 @@
       <c r="G192" s="1"/>
       <c r="H192" s="1"/>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
@@ -2629,7 +2645,7 @@
       <c r="G193" s="1"/>
       <c r="H193" s="1"/>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
@@ -2639,7 +2655,7 @@
       <c r="G194" s="1"/>
       <c r="H194" s="1"/>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
@@ -2649,7 +2665,7 @@
       <c r="G195" s="1"/>
       <c r="H195" s="1"/>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
@@ -2659,7 +2675,7 @@
       <c r="G196" s="1"/>
       <c r="H196" s="1"/>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
@@ -2669,7 +2685,7 @@
       <c r="G197" s="1"/>
       <c r="H197" s="1"/>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
@@ -2679,7 +2695,7 @@
       <c r="G198" s="1"/>
       <c r="H198" s="1"/>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
@@ -2689,7 +2705,7 @@
       <c r="G199" s="1"/>
       <c r="H199" s="1"/>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
@@ -2699,7 +2715,7 @@
       <c r="G200" s="1"/>
       <c r="H200" s="1"/>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A201" s="1"/>
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
@@ -2709,7 +2725,7 @@
       <c r="G201" s="1"/>
       <c r="H201" s="1"/>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A202" s="1"/>
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
@@ -2719,7 +2735,7 @@
       <c r="G202" s="1"/>
       <c r="H202" s="1"/>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
@@ -2729,7 +2745,7 @@
       <c r="G203" s="1"/>
       <c r="H203" s="1"/>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
@@ -2739,7 +2755,7 @@
       <c r="G204" s="1"/>
       <c r="H204" s="1"/>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A205" s="1"/>
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
@@ -2749,7 +2765,7 @@
       <c r="G205" s="1"/>
       <c r="H205" s="1"/>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A206" s="1"/>
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
@@ -2759,7 +2775,7 @@
       <c r="G206" s="1"/>
       <c r="H206" s="1"/>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
@@ -2769,7 +2785,7 @@
       <c r="G207" s="1"/>
       <c r="H207" s="1"/>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A208" s="1"/>
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
@@ -2779,7 +2795,7 @@
       <c r="G208" s="1"/>
       <c r="H208" s="1"/>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A209" s="1"/>
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
@@ -2789,7 +2805,7 @@
       <c r="G209" s="1"/>
       <c r="H209" s="1"/>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A210" s="1"/>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
@@ -2799,7 +2815,7 @@
       <c r="G210" s="1"/>
       <c r="H210" s="1"/>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A211" s="1"/>
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
@@ -2809,7 +2825,7 @@
       <c r="G211" s="1"/>
       <c r="H211" s="1"/>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A212" s="1"/>
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
@@ -2819,7 +2835,7 @@
       <c r="G212" s="1"/>
       <c r="H212" s="1"/>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A213" s="1"/>
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
@@ -2829,7 +2845,7 @@
       <c r="G213" s="1"/>
       <c r="H213" s="1"/>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A214" s="1"/>
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
@@ -2839,7 +2855,7 @@
       <c r="G214" s="1"/>
       <c r="H214" s="1"/>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A215" s="1"/>
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
@@ -2849,7 +2865,7 @@
       <c r="G215" s="1"/>
       <c r="H215" s="1"/>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A216" s="1"/>
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
@@ -2859,7 +2875,7 @@
       <c r="G216" s="1"/>
       <c r="H216" s="1"/>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A217" s="1"/>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
@@ -2869,7 +2885,7 @@
       <c r="G217" s="1"/>
       <c r="H217" s="1"/>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
@@ -2879,7 +2895,7 @@
       <c r="G218" s="1"/>
       <c r="H218" s="1"/>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
@@ -2889,7 +2905,7 @@
       <c r="G219" s="1"/>
       <c r="H219" s="1"/>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A220" s="1"/>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
@@ -2899,7 +2915,7 @@
       <c r="G220" s="1"/>
       <c r="H220" s="1"/>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A221" s="1"/>
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
@@ -2909,7 +2925,7 @@
       <c r="G221" s="1"/>
       <c r="H221" s="1"/>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A222" s="1"/>
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
@@ -2919,7 +2935,7 @@
       <c r="G222" s="1"/>
       <c r="H222" s="1"/>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A223" s="1"/>
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
@@ -2929,7 +2945,7 @@
       <c r="G223" s="1"/>
       <c r="H223" s="1"/>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A224" s="1"/>
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
@@ -2939,7 +2955,7 @@
       <c r="G224" s="1"/>
       <c r="H224" s="1"/>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A225" s="1"/>
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
@@ -2949,7 +2965,7 @@
       <c r="G225" s="1"/>
       <c r="H225" s="1"/>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A226" s="1"/>
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
@@ -2959,7 +2975,7 @@
       <c r="G226" s="1"/>
       <c r="H226" s="1"/>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A227" s="1"/>
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
@@ -2969,7 +2985,7 @@
       <c r="G227" s="1"/>
       <c r="H227" s="1"/>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A228" s="1"/>
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
@@ -2979,7 +2995,7 @@
       <c r="G228" s="1"/>
       <c r="H228" s="1"/>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A229" s="1"/>
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
@@ -2989,7 +3005,7 @@
       <c r="G229" s="1"/>
       <c r="H229" s="1"/>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A230" s="1"/>
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
@@ -2999,7 +3015,7 @@
       <c r="G230" s="1"/>
       <c r="H230" s="1"/>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A231" s="1"/>
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
@@ -3009,7 +3025,7 @@
       <c r="G231" s="1"/>
       <c r="H231" s="1"/>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A232" s="1"/>
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
@@ -3019,7 +3035,7 @@
       <c r="G232" s="1"/>
       <c r="H232" s="1"/>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A233" s="1"/>
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
@@ -3029,7 +3045,7 @@
       <c r="G233" s="1"/>
       <c r="H233" s="1"/>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A234" s="1"/>
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
@@ -3039,7 +3055,7 @@
       <c r="G234" s="1"/>
       <c r="H234" s="1"/>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A235" s="1"/>
       <c r="B235" s="1"/>
       <c r="C235" s="1"/>
@@ -3049,7 +3065,7 @@
       <c r="G235" s="1"/>
       <c r="H235" s="1"/>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A236" s="1"/>
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
@@ -3059,7 +3075,7 @@
       <c r="G236" s="1"/>
       <c r="H236" s="1"/>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A237" s="1"/>
       <c r="B237" s="1"/>
       <c r="C237" s="1"/>
@@ -3069,7 +3085,7 @@
       <c r="G237" s="1"/>
       <c r="H237" s="1"/>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A238" s="1"/>
       <c r="B238" s="1"/>
       <c r="C238" s="1"/>
@@ -3079,7 +3095,7 @@
       <c r="G238" s="1"/>
       <c r="H238" s="1"/>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A239" s="1"/>
       <c r="B239" s="1"/>
       <c r="C239" s="1"/>
@@ -3089,7 +3105,7 @@
       <c r="G239" s="1"/>
       <c r="H239" s="1"/>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A240" s="1"/>
       <c r="B240" s="1"/>
       <c r="C240" s="1"/>
@@ -3099,7 +3115,7 @@
       <c r="G240" s="1"/>
       <c r="H240" s="1"/>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A241" s="1"/>
       <c r="B241" s="1"/>
       <c r="C241" s="1"/>
@@ -3109,7 +3125,7 @@
       <c r="G241" s="1"/>
       <c r="H241" s="1"/>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A242" s="1"/>
       <c r="B242" s="1"/>
       <c r="C242" s="1"/>
@@ -3119,7 +3135,7 @@
       <c r="G242" s="1"/>
       <c r="H242" s="1"/>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A243" s="1"/>
       <c r="B243" s="1"/>
       <c r="C243" s="1"/>
@@ -3129,7 +3145,7 @@
       <c r="G243" s="1"/>
       <c r="H243" s="1"/>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A244" s="1"/>
       <c r="B244" s="1"/>
       <c r="C244" s="1"/>
@@ -3139,7 +3155,7 @@
       <c r="G244" s="1"/>
       <c r="H244" s="1"/>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A245" s="1"/>
       <c r="B245" s="1"/>
       <c r="C245" s="1"/>
@@ -3149,7 +3165,7 @@
       <c r="G245" s="1"/>
       <c r="H245" s="1"/>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A246" s="1"/>
       <c r="B246" s="1"/>
       <c r="C246" s="1"/>
@@ -3159,7 +3175,7 @@
       <c r="G246" s="1"/>
       <c r="H246" s="1"/>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A247" s="1"/>
       <c r="B247" s="1"/>
       <c r="C247" s="1"/>
@@ -3169,7 +3185,7 @@
       <c r="G247" s="1"/>
       <c r="H247" s="1"/>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A248" s="1"/>
       <c r="B248" s="1"/>
       <c r="C248" s="1"/>
@@ -3179,7 +3195,7 @@
       <c r="G248" s="1"/>
       <c r="H248" s="1"/>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A249" s="1"/>
       <c r="B249" s="1"/>
       <c r="C249" s="1"/>
@@ -3189,7 +3205,7 @@
       <c r="G249" s="1"/>
       <c r="H249" s="1"/>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A250" s="1"/>
       <c r="B250" s="1"/>
       <c r="C250" s="1"/>
@@ -3199,7 +3215,7 @@
       <c r="G250" s="1"/>
       <c r="H250" s="1"/>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A251" s="1"/>
       <c r="B251" s="1"/>
       <c r="C251" s="1"/>
@@ -3209,7 +3225,7 @@
       <c r="G251" s="1"/>
       <c r="H251" s="1"/>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A252" s="1"/>
       <c r="B252" s="1"/>
       <c r="C252" s="1"/>
@@ -3219,7 +3235,7 @@
       <c r="G252" s="1"/>
       <c r="H252" s="1"/>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A253" s="1"/>
       <c r="B253" s="1"/>
       <c r="C253" s="1"/>
@@ -3229,7 +3245,7 @@
       <c r="G253" s="1"/>
       <c r="H253" s="1"/>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A254" s="1"/>
       <c r="B254" s="1"/>
       <c r="C254" s="1"/>
@@ -3239,7 +3255,7 @@
       <c r="G254" s="1"/>
       <c r="H254" s="1"/>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A255" s="1"/>
       <c r="B255" s="1"/>
       <c r="C255" s="1"/>
@@ -3249,7 +3265,7 @@
       <c r="G255" s="1"/>
       <c r="H255" s="1"/>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A256" s="1"/>
       <c r="B256" s="1"/>
       <c r="C256" s="1"/>
@@ -3259,7 +3275,7 @@
       <c r="G256" s="1"/>
       <c r="H256" s="1"/>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A257" s="1"/>
       <c r="B257" s="1"/>
       <c r="C257" s="1"/>
@@ -3269,7 +3285,7 @@
       <c r="G257" s="1"/>
       <c r="H257" s="1"/>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A258" s="1"/>
       <c r="B258" s="1"/>
       <c r="C258" s="1"/>
@@ -3279,7 +3295,7 @@
       <c r="G258" s="1"/>
       <c r="H258" s="1"/>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A259" s="1"/>
       <c r="B259" s="1"/>
       <c r="C259" s="1"/>
@@ -3289,7 +3305,7 @@
       <c r="G259" s="1"/>
       <c r="H259" s="1"/>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A260" s="1"/>
       <c r="B260" s="1"/>
       <c r="C260" s="1"/>
@@ -3299,7 +3315,7 @@
       <c r="G260" s="1"/>
       <c r="H260" s="1"/>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A261" s="1"/>
       <c r="B261" s="1"/>
       <c r="C261" s="1"/>
@@ -3309,7 +3325,7 @@
       <c r="G261" s="1"/>
       <c r="H261" s="1"/>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A262" s="1"/>
       <c r="B262" s="1"/>
       <c r="C262" s="1"/>
@@ -3319,7 +3335,7 @@
       <c r="G262" s="1"/>
       <c r="H262" s="1"/>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A263" s="1"/>
       <c r="B263" s="1"/>
       <c r="C263" s="1"/>
@@ -3329,7 +3345,7 @@
       <c r="G263" s="1"/>
       <c r="H263" s="1"/>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A264" s="1"/>
       <c r="B264" s="1"/>
       <c r="C264" s="1"/>
@@ -3339,7 +3355,7 @@
       <c r="G264" s="1"/>
       <c r="H264" s="1"/>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A265" s="1"/>
       <c r="B265" s="1"/>
       <c r="C265" s="1"/>
@@ -3349,7 +3365,7 @@
       <c r="G265" s="1"/>
       <c r="H265" s="1"/>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A266" s="1"/>
       <c r="B266" s="1"/>
       <c r="C266" s="1"/>
@@ -3359,7 +3375,7 @@
       <c r="G266" s="1"/>
       <c r="H266" s="1"/>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A267" s="1"/>
       <c r="B267" s="1"/>
       <c r="C267" s="1"/>
@@ -3369,7 +3385,7 @@
       <c r="G267" s="1"/>
       <c r="H267" s="1"/>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A268" s="1"/>
       <c r="B268" s="1"/>
       <c r="C268" s="1"/>
@@ -3379,7 +3395,7 @@
       <c r="G268" s="1"/>
       <c r="H268" s="1"/>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A269" s="1"/>
       <c r="B269" s="1"/>
       <c r="C269" s="1"/>
@@ -3389,7 +3405,7 @@
       <c r="G269" s="1"/>
       <c r="H269" s="1"/>
     </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A270" s="1"/>
       <c r="B270" s="1"/>
       <c r="C270" s="1"/>
@@ -3399,7 +3415,7 @@
       <c r="G270" s="1"/>
       <c r="H270" s="1"/>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A271" s="1"/>
       <c r="B271" s="1"/>
       <c r="C271" s="1"/>
@@ -3409,7 +3425,7 @@
       <c r="G271" s="1"/>
       <c r="H271" s="1"/>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A272" s="1"/>
       <c r="B272" s="1"/>
       <c r="C272" s="1"/>
@@ -3419,7 +3435,7 @@
       <c r="G272" s="1"/>
       <c r="H272" s="1"/>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A273" s="1"/>
       <c r="B273" s="1"/>
       <c r="C273" s="1"/>
@@ -3429,7 +3445,7 @@
       <c r="G273" s="1"/>
       <c r="H273" s="1"/>
     </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A274" s="1"/>
       <c r="B274" s="1"/>
       <c r="C274" s="1"/>
@@ -3439,7 +3455,7 @@
       <c r="G274" s="1"/>
       <c r="H274" s="1"/>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A275" s="1"/>
       <c r="B275" s="1"/>
       <c r="C275" s="1"/>
@@ -3449,7 +3465,7 @@
       <c r="G275" s="1"/>
       <c r="H275" s="1"/>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A276" s="1"/>
       <c r="B276" s="1"/>
       <c r="C276" s="1"/>
@@ -3459,7 +3475,7 @@
       <c r="G276" s="1"/>
       <c r="H276" s="1"/>
     </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A277" s="1"/>
       <c r="B277" s="1"/>
       <c r="C277" s="1"/>
@@ -3469,7 +3485,7 @@
       <c r="G277" s="1"/>
       <c r="H277" s="1"/>
     </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A278" s="1"/>
       <c r="B278" s="1"/>
       <c r="C278" s="1"/>
@@ -3479,7 +3495,7 @@
       <c r="G278" s="1"/>
       <c r="H278" s="1"/>
     </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A279" s="1"/>
       <c r="B279" s="1"/>
       <c r="C279" s="1"/>
@@ -3489,7 +3505,7 @@
       <c r="G279" s="1"/>
       <c r="H279" s="1"/>
     </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A280" s="1"/>
       <c r="B280" s="1"/>
       <c r="C280" s="1"/>
@@ -3499,7 +3515,7 @@
       <c r="G280" s="1"/>
       <c r="H280" s="1"/>
     </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A281" s="1"/>
       <c r="B281" s="1"/>
       <c r="C281" s="1"/>
@@ -3509,7 +3525,7 @@
       <c r="G281" s="1"/>
       <c r="H281" s="1"/>
     </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A282" s="1"/>
       <c r="B282" s="1"/>
       <c r="C282" s="1"/>
@@ -3519,7 +3535,7 @@
       <c r="G282" s="1"/>
       <c r="H282" s="1"/>
     </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A283" s="1"/>
       <c r="B283" s="1"/>
       <c r="C283" s="1"/>
@@ -3529,7 +3545,7 @@
       <c r="G283" s="1"/>
       <c r="H283" s="1"/>
     </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A284" s="1"/>
       <c r="B284" s="1"/>
       <c r="C284" s="1"/>
@@ -3539,7 +3555,7 @@
       <c r="G284" s="1"/>
       <c r="H284" s="1"/>
     </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A285" s="1"/>
       <c r="B285" s="1"/>
       <c r="C285" s="1"/>
@@ -3549,7 +3565,7 @@
       <c r="G285" s="1"/>
       <c r="H285" s="1"/>
     </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A286" s="1"/>
       <c r="B286" s="1"/>
       <c r="C286" s="1"/>
@@ -3559,7 +3575,7 @@
       <c r="G286" s="1"/>
       <c r="H286" s="1"/>
     </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A287" s="1"/>
       <c r="B287" s="1"/>
       <c r="C287" s="1"/>
@@ -3569,7 +3585,7 @@
       <c r="G287" s="1"/>
       <c r="H287" s="1"/>
     </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A288" s="1"/>
       <c r="B288" s="1"/>
       <c r="C288" s="1"/>
@@ -3579,7 +3595,7 @@
       <c r="G288" s="1"/>
       <c r="H288" s="1"/>
     </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A289" s="1"/>
       <c r="B289" s="1"/>
       <c r="C289" s="1"/>
@@ -3589,7 +3605,7 @@
       <c r="G289" s="1"/>
       <c r="H289" s="1"/>
     </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A290" s="1"/>
       <c r="B290" s="1"/>
       <c r="C290" s="1"/>
@@ -3599,7 +3615,7 @@
       <c r="G290" s="1"/>
       <c r="H290" s="1"/>
     </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A291" s="1"/>
       <c r="B291" s="1"/>
       <c r="C291" s="1"/>
@@ -3609,7 +3625,7 @@
       <c r="G291" s="1"/>
       <c r="H291" s="1"/>
     </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A292" s="1"/>
       <c r="B292" s="1"/>
       <c r="C292" s="1"/>
@@ -3619,7 +3635,7 @@
       <c r="G292" s="1"/>
       <c r="H292" s="1"/>
     </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A293" s="1"/>
       <c r="B293" s="1"/>
       <c r="C293" s="1"/>
@@ -3629,7 +3645,7 @@
       <c r="G293" s="1"/>
       <c r="H293" s="1"/>
     </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A294" s="1"/>
       <c r="B294" s="1"/>
       <c r="C294" s="1"/>
@@ -3639,7 +3655,7 @@
       <c r="G294" s="1"/>
       <c r="H294" s="1"/>
     </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A295" s="1"/>
       <c r="B295" s="1"/>
       <c r="C295" s="1"/>
@@ -3649,7 +3665,7 @@
       <c r="G295" s="1"/>
       <c r="H295" s="1"/>
     </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A296" s="1"/>
       <c r="B296" s="1"/>
       <c r="C296" s="1"/>
@@ -3659,7 +3675,7 @@
       <c r="G296" s="1"/>
       <c r="H296" s="1"/>
     </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A297" s="1"/>
       <c r="B297" s="1"/>
       <c r="C297" s="1"/>
@@ -3669,7 +3685,7 @@
       <c r="G297" s="1"/>
       <c r="H297" s="1"/>
     </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A298" s="1"/>
       <c r="B298" s="1"/>
       <c r="C298" s="1"/>
@@ -3679,7 +3695,7 @@
       <c r="G298" s="1"/>
       <c r="H298" s="1"/>
     </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A299" s="1"/>
       <c r="B299" s="1"/>
       <c r="C299" s="1"/>
@@ -3689,7 +3705,7 @@
       <c r="G299" s="1"/>
       <c r="H299" s="1"/>
     </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A300" s="1"/>
       <c r="B300" s="1"/>
       <c r="C300" s="1"/>
@@ -3699,7 +3715,7 @@
       <c r="G300" s="1"/>
       <c r="H300" s="1"/>
     </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A301" s="1"/>
       <c r="B301" s="1"/>
       <c r="C301" s="1"/>
@@ -3709,7 +3725,7 @@
       <c r="G301" s="1"/>
       <c r="H301" s="1"/>
     </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A302" s="1"/>
       <c r="B302" s="1"/>
       <c r="C302" s="1"/>
@@ -3719,7 +3735,7 @@
       <c r="G302" s="1"/>
       <c r="H302" s="1"/>
     </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A303" s="1"/>
       <c r="B303" s="1"/>
       <c r="C303" s="1"/>
@@ -3729,7 +3745,7 @@
       <c r="G303" s="1"/>
       <c r="H303" s="1"/>
     </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A304" s="1"/>
       <c r="B304" s="1"/>
       <c r="C304" s="1"/>
@@ -3739,7 +3755,7 @@
       <c r="G304" s="1"/>
       <c r="H304" s="1"/>
     </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A305" s="1"/>
       <c r="B305" s="1"/>
       <c r="C305" s="1"/>
@@ -3749,7 +3765,7 @@
       <c r="G305" s="1"/>
       <c r="H305" s="1"/>
     </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A306" s="1"/>
       <c r="B306" s="1"/>
       <c r="C306" s="1"/>
@@ -3759,7 +3775,7 @@
       <c r="G306" s="1"/>
       <c r="H306" s="1"/>
     </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A307" s="1"/>
       <c r="B307" s="1"/>
       <c r="C307" s="1"/>
@@ -3769,7 +3785,7 @@
       <c r="G307" s="1"/>
       <c r="H307" s="1"/>
     </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A308" s="1"/>
       <c r="B308" s="1"/>
       <c r="C308" s="1"/>
@@ -3779,7 +3795,7 @@
       <c r="G308" s="1"/>
       <c r="H308" s="1"/>
     </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A309" s="1"/>
       <c r="B309" s="1"/>
       <c r="C309" s="1"/>
@@ -3789,7 +3805,7 @@
       <c r="G309" s="1"/>
       <c r="H309" s="1"/>
     </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A310" s="1"/>
       <c r="B310" s="1"/>
       <c r="C310" s="1"/>
@@ -3799,7 +3815,7 @@
       <c r="G310" s="1"/>
       <c r="H310" s="1"/>
     </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A311" s="1"/>
       <c r="B311" s="1"/>
       <c r="C311" s="1"/>
@@ -3809,7 +3825,7 @@
       <c r="G311" s="1"/>
       <c r="H311" s="1"/>
     </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A312" s="1"/>
       <c r="B312" s="1"/>
       <c r="C312" s="1"/>
@@ -3819,7 +3835,7 @@
       <c r="G312" s="1"/>
       <c r="H312" s="1"/>
     </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A313" s="1"/>
       <c r="B313" s="1"/>
       <c r="C313" s="1"/>
@@ -3829,7 +3845,7 @@
       <c r="G313" s="1"/>
       <c r="H313" s="1"/>
     </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A314" s="1"/>
       <c r="B314" s="1"/>
       <c r="C314" s="1"/>
@@ -3839,7 +3855,7 @@
       <c r="G314" s="1"/>
       <c r="H314" s="1"/>
     </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A315" s="1"/>
       <c r="B315" s="1"/>
       <c r="C315" s="1"/>
@@ -3849,7 +3865,7 @@
       <c r="G315" s="1"/>
       <c r="H315" s="1"/>
     </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A316" s="1"/>
       <c r="B316" s="1"/>
       <c r="C316" s="1"/>
@@ -3859,7 +3875,7 @@
       <c r="G316" s="1"/>
       <c r="H316" s="1"/>
     </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A317" s="1"/>
       <c r="B317" s="1"/>
       <c r="C317" s="1"/>
@@ -3869,7 +3885,7 @@
       <c r="G317" s="1"/>
       <c r="H317" s="1"/>
     </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A318" s="1"/>
       <c r="B318" s="1"/>
       <c r="C318" s="1"/>
@@ -3879,7 +3895,7 @@
       <c r="G318" s="1"/>
       <c r="H318" s="1"/>
     </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A319" s="1"/>
       <c r="B319" s="1"/>
       <c r="C319" s="1"/>
@@ -3889,7 +3905,7 @@
       <c r="G319" s="1"/>
       <c r="H319" s="1"/>
     </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A320" s="1"/>
       <c r="B320" s="1"/>
       <c r="C320" s="1"/>
@@ -3899,7 +3915,7 @@
       <c r="G320" s="1"/>
       <c r="H320" s="1"/>
     </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A321" s="1"/>
       <c r="B321" s="1"/>
       <c r="C321" s="1"/>
@@ -3909,7 +3925,7 @@
       <c r="G321" s="1"/>
       <c r="H321" s="1"/>
     </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A322" s="1"/>
       <c r="B322" s="1"/>
       <c r="C322" s="1"/>
@@ -3919,7 +3935,7 @@
       <c r="G322" s="1"/>
       <c r="H322" s="1"/>
     </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A323" s="1"/>
       <c r="B323" s="1"/>
       <c r="C323" s="1"/>
@@ -3929,7 +3945,7 @@
       <c r="G323" s="1"/>
       <c r="H323" s="1"/>
     </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A324" s="1"/>
       <c r="B324" s="1"/>
       <c r="C324" s="1"/>
@@ -3939,7 +3955,7 @@
       <c r="G324" s="1"/>
       <c r="H324" s="1"/>
     </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A325" s="1"/>
       <c r="B325" s="1"/>
       <c r="C325" s="1"/>
@@ -3949,7 +3965,7 @@
       <c r="G325" s="1"/>
       <c r="H325" s="1"/>
     </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A326" s="1"/>
       <c r="B326" s="1"/>
       <c r="C326" s="1"/>
@@ -3959,7 +3975,7 @@
       <c r="G326" s="1"/>
       <c r="H326" s="1"/>
     </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A327" s="1"/>
       <c r="B327" s="1"/>
       <c r="C327" s="1"/>
@@ -3969,7 +3985,7 @@
       <c r="G327" s="1"/>
       <c r="H327" s="1"/>
     </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A328" s="1"/>
       <c r="B328" s="1"/>
       <c r="C328" s="1"/>
@@ -3979,7 +3995,7 @@
       <c r="G328" s="1"/>
       <c r="H328" s="1"/>
     </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A329" s="1"/>
       <c r="B329" s="1"/>
       <c r="C329" s="1"/>
@@ -3989,7 +4005,7 @@
       <c r="G329" s="1"/>
       <c r="H329" s="1"/>
     </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A330" s="1"/>
       <c r="B330" s="1"/>
       <c r="C330" s="1"/>
@@ -3999,7 +4015,7 @@
       <c r="G330" s="1"/>
       <c r="H330" s="1"/>
     </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A331" s="1"/>
       <c r="B331" s="1"/>
       <c r="C331" s="1"/>
@@ -4009,7 +4025,7 @@
       <c r="G331" s="1"/>
       <c r="H331" s="1"/>
     </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A332" s="1"/>
       <c r="B332" s="1"/>
       <c r="C332" s="1"/>
@@ -4019,7 +4035,7 @@
       <c r="G332" s="1"/>
       <c r="H332" s="1"/>
     </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A333" s="1"/>
       <c r="B333" s="1"/>
       <c r="C333" s="1"/>
@@ -4029,7 +4045,7 @@
       <c r="G333" s="1"/>
       <c r="H333" s="1"/>
     </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A334" s="1"/>
       <c r="B334" s="1"/>
       <c r="C334" s="1"/>
@@ -4039,7 +4055,7 @@
       <c r="G334" s="1"/>
       <c r="H334" s="1"/>
     </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A335" s="1"/>
       <c r="B335" s="1"/>
       <c r="C335" s="1"/>
@@ -4049,7 +4065,7 @@
       <c r="G335" s="1"/>
       <c r="H335" s="1"/>
     </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A336" s="1"/>
       <c r="B336" s="1"/>
       <c r="C336" s="1"/>
@@ -4059,7 +4075,7 @@
       <c r="G336" s="1"/>
       <c r="H336" s="1"/>
     </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A337" s="1"/>
       <c r="B337" s="1"/>
       <c r="C337" s="1"/>
@@ -4069,7 +4085,7 @@
       <c r="G337" s="1"/>
       <c r="H337" s="1"/>
     </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A338" s="1"/>
       <c r="B338" s="1"/>
       <c r="C338" s="1"/>
@@ -4079,7 +4095,7 @@
       <c r="G338" s="1"/>
       <c r="H338" s="1"/>
     </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A339" s="1"/>
       <c r="B339" s="1"/>
       <c r="C339" s="1"/>
@@ -4089,7 +4105,7 @@
       <c r="G339" s="1"/>
       <c r="H339" s="1"/>
     </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A340" s="1"/>
       <c r="B340" s="1"/>
       <c r="C340" s="1"/>
@@ -4099,7 +4115,7 @@
       <c r="G340" s="1"/>
       <c r="H340" s="1"/>
     </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A341" s="1"/>
       <c r="B341" s="1"/>
       <c r="C341" s="1"/>
@@ -4109,7 +4125,7 @@
       <c r="G341" s="1"/>
       <c r="H341" s="1"/>
     </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A342" s="1"/>
       <c r="B342" s="1"/>
       <c r="C342" s="1"/>
@@ -4119,7 +4135,7 @@
       <c r="G342" s="1"/>
       <c r="H342" s="1"/>
     </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A343" s="1"/>
       <c r="B343" s="1"/>
       <c r="C343" s="1"/>
@@ -4129,7 +4145,7 @@
       <c r="G343" s="1"/>
       <c r="H343" s="1"/>
     </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A344" s="1"/>
       <c r="B344" s="1"/>
       <c r="C344" s="1"/>
@@ -4139,7 +4155,7 @@
       <c r="G344" s="1"/>
       <c r="H344" s="1"/>
     </row>
-    <row r="345" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A345" s="1"/>
       <c r="B345" s="1"/>
       <c r="C345" s="1"/>
@@ -4149,7 +4165,7 @@
       <c r="G345" s="1"/>
       <c r="H345" s="1"/>
     </row>
-    <row r="346" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A346" s="1"/>
       <c r="B346" s="1"/>
       <c r="C346" s="1"/>
@@ -4159,7 +4175,7 @@
       <c r="G346" s="1"/>
       <c r="H346" s="1"/>
     </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A347" s="1"/>
       <c r="B347" s="1"/>
       <c r="C347" s="1"/>
@@ -4169,7 +4185,7 @@
       <c r="G347" s="1"/>
       <c r="H347" s="1"/>
     </row>
-    <row r="348" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A348" s="1"/>
       <c r="B348" s="1"/>
       <c r="C348" s="1"/>
@@ -4179,7 +4195,7 @@
       <c r="G348" s="1"/>
       <c r="H348" s="1"/>
     </row>
-    <row r="349" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A349" s="1"/>
       <c r="B349" s="1"/>
       <c r="C349" s="1"/>
@@ -4189,7 +4205,7 @@
       <c r="G349" s="1"/>
       <c r="H349" s="1"/>
     </row>
-    <row r="350" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A350" s="1"/>
       <c r="B350" s="1"/>
       <c r="C350" s="1"/>
@@ -4199,7 +4215,7 @@
       <c r="G350" s="1"/>
       <c r="H350" s="1"/>
     </row>
-    <row r="351" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A351" s="1"/>
       <c r="B351" s="1"/>
       <c r="C351" s="1"/>
@@ -4209,7 +4225,7 @@
       <c r="G351" s="1"/>
       <c r="H351" s="1"/>
     </row>
-    <row r="352" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A352" s="1"/>
       <c r="B352" s="1"/>
       <c r="C352" s="1"/>
@@ -4219,7 +4235,7 @@
       <c r="G352" s="1"/>
       <c r="H352" s="1"/>
     </row>
-    <row r="353" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A353" s="1"/>
       <c r="B353" s="1"/>
       <c r="C353" s="1"/>
@@ -4229,7 +4245,7 @@
       <c r="G353" s="1"/>
       <c r="H353" s="1"/>
     </row>
-    <row r="354" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A354" s="1"/>
       <c r="B354" s="1"/>
       <c r="C354" s="1"/>
@@ -4239,7 +4255,7 @@
       <c r="G354" s="1"/>
       <c r="H354" s="1"/>
     </row>
-    <row r="355" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A355" s="1"/>
       <c r="B355" s="1"/>
       <c r="C355" s="1"/>
@@ -4249,7 +4265,7 @@
       <c r="G355" s="1"/>
       <c r="H355" s="1"/>
     </row>
-    <row r="356" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A356" s="1"/>
       <c r="B356" s="1"/>
       <c r="C356" s="1"/>
@@ -4259,7 +4275,7 @@
       <c r="G356" s="1"/>
       <c r="H356" s="1"/>
     </row>
-    <row r="357" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A357" s="1"/>
       <c r="B357" s="1"/>
       <c r="C357" s="1"/>
@@ -4269,7 +4285,7 @@
       <c r="G357" s="1"/>
       <c r="H357" s="1"/>
     </row>
-    <row r="358" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A358" s="1"/>
       <c r="B358" s="1"/>
       <c r="C358" s="1"/>
@@ -4279,7 +4295,7 @@
       <c r="G358" s="1"/>
       <c r="H358" s="1"/>
     </row>
-    <row r="359" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A359" s="1"/>
       <c r="B359" s="1"/>
       <c r="C359" s="1"/>
@@ -4289,7 +4305,7 @@
       <c r="G359" s="1"/>
       <c r="H359" s="1"/>
     </row>
-    <row r="360" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A360" s="1"/>
       <c r="B360" s="1"/>
       <c r="C360" s="1"/>
@@ -4299,7 +4315,7 @@
       <c r="G360" s="1"/>
       <c r="H360" s="1"/>
     </row>
-    <row r="361" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A361" s="1"/>
       <c r="B361" s="1"/>
       <c r="C361" s="1"/>
@@ -4309,7 +4325,7 @@
       <c r="G361" s="1"/>
       <c r="H361" s="1"/>
     </row>
-    <row r="362" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A362" s="1"/>
       <c r="B362" s="1"/>
       <c r="C362" s="1"/>
@@ -4319,7 +4335,7 @@
       <c r="G362" s="1"/>
       <c r="H362" s="1"/>
     </row>
-    <row r="363" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A363" s="1"/>
       <c r="B363" s="1"/>
       <c r="C363" s="1"/>
@@ -4329,7 +4345,7 @@
       <c r="G363" s="1"/>
       <c r="H363" s="1"/>
     </row>
-    <row r="364" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A364" s="1"/>
       <c r="B364" s="1"/>
       <c r="C364" s="1"/>
@@ -4339,7 +4355,7 @@
       <c r="G364" s="1"/>
       <c r="H364" s="1"/>
     </row>
-    <row r="365" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A365" s="1"/>
       <c r="B365" s="1"/>
       <c r="C365" s="1"/>
@@ -4349,7 +4365,7 @@
       <c r="G365" s="1"/>
       <c r="H365" s="1"/>
     </row>
-    <row r="366" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A366" s="1"/>
       <c r="B366" s="1"/>
       <c r="C366" s="1"/>
@@ -4359,7 +4375,7 @@
       <c r="G366" s="1"/>
       <c r="H366" s="1"/>
     </row>
-    <row r="367" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A367" s="1"/>
       <c r="B367" s="1"/>
       <c r="C367" s="1"/>
@@ -4369,7 +4385,7 @@
       <c r="G367" s="1"/>
       <c r="H367" s="1"/>
     </row>
-    <row r="368" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A368" s="1"/>
       <c r="B368" s="1"/>
       <c r="C368" s="1"/>
@@ -4379,7 +4395,7 @@
       <c r="G368" s="1"/>
       <c r="H368" s="1"/>
     </row>
-    <row r="369" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A369" s="1"/>
       <c r="B369" s="1"/>
       <c r="C369" s="1"/>
@@ -4389,7 +4405,7 @@
       <c r="G369" s="1"/>
       <c r="H369" s="1"/>
     </row>
-    <row r="370" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A370" s="1"/>
       <c r="B370" s="1"/>
       <c r="C370" s="1"/>
@@ -4399,7 +4415,7 @@
       <c r="G370" s="1"/>
       <c r="H370" s="1"/>
     </row>
-    <row r="371" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A371" s="1"/>
       <c r="B371" s="1"/>
       <c r="C371" s="1"/>
@@ -4409,7 +4425,7 @@
       <c r="G371" s="1"/>
       <c r="H371" s="1"/>
     </row>
-    <row r="372" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A372" s="1"/>
       <c r="B372" s="1"/>
       <c r="C372" s="1"/>
@@ -4419,7 +4435,7 @@
       <c r="G372" s="1"/>
       <c r="H372" s="1"/>
     </row>
-    <row r="373" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A373" s="1"/>
       <c r="B373" s="1"/>
       <c r="C373" s="1"/>
@@ -4429,7 +4445,7 @@
       <c r="G373" s="1"/>
       <c r="H373" s="1"/>
     </row>
-    <row r="374" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A374" s="1"/>
       <c r="B374" s="1"/>
       <c r="C374" s="1"/>
@@ -4439,7 +4455,7 @@
       <c r="G374" s="1"/>
       <c r="H374" s="1"/>
     </row>
-    <row r="375" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A375" s="1"/>
       <c r="B375" s="1"/>
       <c r="C375" s="1"/>
@@ -4449,7 +4465,7 @@
       <c r="G375" s="1"/>
       <c r="H375" s="1"/>
     </row>
-    <row r="376" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A376" s="1"/>
       <c r="B376" s="1"/>
       <c r="C376" s="1"/>
@@ -4459,7 +4475,7 @@
       <c r="G376" s="1"/>
       <c r="H376" s="1"/>
     </row>
-    <row r="377" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A377" s="1"/>
       <c r="B377" s="1"/>
       <c r="C377" s="1"/>
@@ -4469,7 +4485,7 @@
       <c r="G377" s="1"/>
       <c r="H377" s="1"/>
     </row>
-    <row r="378" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A378" s="1"/>
       <c r="B378" s="1"/>
       <c r="C378" s="1"/>
@@ -4479,7 +4495,7 @@
       <c r="G378" s="1"/>
       <c r="H378" s="1"/>
     </row>
-    <row r="379" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A379" s="1"/>
       <c r="B379" s="1"/>
       <c r="C379" s="1"/>
@@ -4489,7 +4505,7 @@
       <c r="G379" s="1"/>
       <c r="H379" s="1"/>
     </row>
-    <row r="380" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A380" s="1"/>
       <c r="B380" s="1"/>
       <c r="C380" s="1"/>
@@ -4499,7 +4515,7 @@
       <c r="G380" s="1"/>
       <c r="H380" s="1"/>
     </row>
-    <row r="381" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A381" s="1"/>
       <c r="B381" s="1"/>
       <c r="C381" s="1"/>
@@ -4509,7 +4525,7 @@
       <c r="G381" s="1"/>
       <c r="H381" s="1"/>
     </row>
-    <row r="382" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A382" s="1"/>
       <c r="B382" s="1"/>
       <c r="C382" s="1"/>
@@ -4519,7 +4535,7 @@
       <c r="G382" s="1"/>
       <c r="H382" s="1"/>
     </row>
-    <row r="383" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A383" s="1"/>
       <c r="B383" s="1"/>
       <c r="C383" s="1"/>
@@ -4529,7 +4545,7 @@
       <c r="G383" s="1"/>
       <c r="H383" s="1"/>
     </row>
-    <row r="384" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A384" s="1"/>
       <c r="B384" s="1"/>
       <c r="C384" s="1"/>
@@ -4539,7 +4555,7 @@
       <c r="G384" s="1"/>
       <c r="H384" s="1"/>
     </row>
-    <row r="385" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A385" s="1"/>
       <c r="B385" s="1"/>
       <c r="C385" s="1"/>
@@ -4549,7 +4565,7 @@
       <c r="G385" s="1"/>
       <c r="H385" s="1"/>
     </row>
-    <row r="386" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A386" s="1"/>
       <c r="B386" s="1"/>
       <c r="C386" s="1"/>
@@ -4559,7 +4575,7 @@
       <c r="G386" s="1"/>
       <c r="H386" s="1"/>
     </row>
-    <row r="387" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A387" s="1"/>
       <c r="B387" s="1"/>
       <c r="C387" s="1"/>
@@ -4569,7 +4585,7 @@
       <c r="G387" s="1"/>
       <c r="H387" s="1"/>
     </row>
-    <row r="388" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A388" s="1"/>
       <c r="B388" s="1"/>
       <c r="C388" s="1"/>
@@ -4579,7 +4595,7 @@
       <c r="G388" s="1"/>
       <c r="H388" s="1"/>
     </row>
-    <row r="389" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A389" s="1"/>
       <c r="B389" s="1"/>
       <c r="C389" s="1"/>
@@ -4589,7 +4605,7 @@
       <c r="G389" s="1"/>
       <c r="H389" s="1"/>
     </row>
-    <row r="390" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A390" s="1"/>
       <c r="B390" s="1"/>
       <c r="C390" s="1"/>
@@ -4599,7 +4615,7 @@
       <c r="G390" s="1"/>
       <c r="H390" s="1"/>
     </row>
-    <row r="391" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A391" s="1"/>
       <c r="B391" s="1"/>
       <c r="C391" s="1"/>
@@ -4609,7 +4625,7 @@
       <c r="G391" s="1"/>
       <c r="H391" s="1"/>
     </row>
-    <row r="392" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A392" s="1"/>
       <c r="B392" s="1"/>
       <c r="C392" s="1"/>
@@ -4619,7 +4635,7 @@
       <c r="G392" s="1"/>
       <c r="H392" s="1"/>
     </row>
-    <row r="393" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A393" s="1"/>
       <c r="B393" s="1"/>
       <c r="C393" s="1"/>
@@ -4629,7 +4645,7 @@
       <c r="G393" s="1"/>
       <c r="H393" s="1"/>
     </row>
-    <row r="394" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A394" s="1"/>
       <c r="B394" s="1"/>
       <c r="C394" s="1"/>
@@ -4639,7 +4655,7 @@
       <c r="G394" s="1"/>
       <c r="H394" s="1"/>
     </row>
-    <row r="395" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A395" s="1"/>
       <c r="B395" s="1"/>
       <c r="C395" s="1"/>
@@ -4649,7 +4665,7 @@
       <c r="G395" s="1"/>
       <c r="H395" s="1"/>
     </row>
-    <row r="396" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A396" s="1"/>
       <c r="B396" s="1"/>
       <c r="C396" s="1"/>
@@ -4659,7 +4675,7 @@
       <c r="G396" s="1"/>
       <c r="H396" s="1"/>
     </row>
-    <row r="397" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A397" s="1"/>
       <c r="B397" s="1"/>
       <c r="C397" s="1"/>
@@ -4669,7 +4685,7 @@
       <c r="G397" s="1"/>
       <c r="H397" s="1"/>
     </row>
-    <row r="398" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A398" s="1"/>
       <c r="B398" s="1"/>
       <c r="C398" s="1"/>
@@ -4679,7 +4695,7 @@
       <c r="G398" s="1"/>
       <c r="H398" s="1"/>
     </row>
-    <row r="399" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A399" s="1"/>
       <c r="B399" s="1"/>
       <c r="C399" s="1"/>
@@ -4689,7 +4705,7 @@
       <c r="G399" s="1"/>
       <c r="H399" s="1"/>
     </row>
-    <row r="400" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A400" s="1"/>
       <c r="B400" s="1"/>
       <c r="C400" s="1"/>
@@ -4699,7 +4715,7 @@
       <c r="G400" s="1"/>
       <c r="H400" s="1"/>
     </row>
-    <row r="401" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A401" s="1"/>
       <c r="B401" s="1"/>
       <c r="C401" s="1"/>
@@ -4709,7 +4725,7 @@
       <c r="G401" s="1"/>
       <c r="H401" s="1"/>
     </row>
-    <row r="402" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A402" s="1"/>
       <c r="B402" s="1"/>
       <c r="C402" s="1"/>
@@ -4719,7 +4735,7 @@
       <c r="G402" s="1"/>
       <c r="H402" s="1"/>
     </row>
-    <row r="403" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A403" s="1"/>
       <c r="B403" s="1"/>
       <c r="C403" s="1"/>
@@ -4729,7 +4745,7 @@
       <c r="G403" s="1"/>
       <c r="H403" s="1"/>
     </row>
-    <row r="404" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A404" s="1"/>
       <c r="B404" s="1"/>
       <c r="C404" s="1"/>
@@ -4739,7 +4755,7 @@
       <c r="G404" s="1"/>
       <c r="H404" s="1"/>
     </row>
-    <row r="405" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A405" s="1"/>
       <c r="B405" s="1"/>
       <c r="C405" s="1"/>
@@ -4749,7 +4765,7 @@
       <c r="G405" s="1"/>
       <c r="H405" s="1"/>
     </row>
-    <row r="406" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A406" s="1"/>
       <c r="B406" s="1"/>
       <c r="C406" s="1"/>
@@ -4759,7 +4775,7 @@
       <c r="G406" s="1"/>
       <c r="H406" s="1"/>
     </row>
-    <row r="407" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A407" s="1"/>
       <c r="B407" s="1"/>
       <c r="C407" s="1"/>
@@ -4769,7 +4785,7 @@
       <c r="G407" s="1"/>
       <c r="H407" s="1"/>
     </row>
-    <row r="408" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A408" s="1"/>
       <c r="B408" s="1"/>
       <c r="C408" s="1"/>
@@ -4779,7 +4795,7 @@
       <c r="G408" s="1"/>
       <c r="H408" s="1"/>
     </row>
-    <row r="409" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A409" s="1"/>
       <c r="B409" s="1"/>
       <c r="C409" s="1"/>
@@ -4789,7 +4805,7 @@
       <c r="G409" s="1"/>
       <c r="H409" s="1"/>
     </row>
-    <row r="410" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A410" s="1"/>
       <c r="B410" s="1"/>
       <c r="C410" s="1"/>
@@ -4799,7 +4815,7 @@
       <c r="G410" s="1"/>
       <c r="H410" s="1"/>
     </row>
-    <row r="411" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A411" s="1"/>
       <c r="B411" s="1"/>
       <c r="C411" s="1"/>
@@ -4809,7 +4825,7 @@
       <c r="G411" s="1"/>
       <c r="H411" s="1"/>
     </row>
-    <row r="412" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A412" s="1"/>
       <c r="B412" s="1"/>
       <c r="C412" s="1"/>
@@ -4819,7 +4835,7 @@
       <c r="G412" s="1"/>
       <c r="H412" s="1"/>
     </row>
-    <row r="413" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A413" s="1"/>
       <c r="B413" s="1"/>
       <c r="C413" s="1"/>
@@ -4829,7 +4845,7 @@
       <c r="G413" s="1"/>
       <c r="H413" s="1"/>
     </row>
-    <row r="414" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A414" s="1"/>
       <c r="B414" s="1"/>
       <c r="C414" s="1"/>
@@ -4839,7 +4855,7 @@
       <c r="G414" s="1"/>
       <c r="H414" s="1"/>
     </row>
-    <row r="415" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A415" s="1"/>
       <c r="B415" s="1"/>
       <c r="C415" s="1"/>
@@ -4849,7 +4865,7 @@
       <c r="G415" s="1"/>
       <c r="H415" s="1"/>
     </row>
-    <row r="416" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A416" s="1"/>
       <c r="B416" s="1"/>
       <c r="C416" s="1"/>
@@ -4859,7 +4875,7 @@
       <c r="G416" s="1"/>
       <c r="H416" s="1"/>
     </row>
-    <row r="417" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A417" s="1"/>
       <c r="B417" s="1"/>
       <c r="C417" s="1"/>
@@ -4869,7 +4885,7 @@
       <c r="G417" s="1"/>
       <c r="H417" s="1"/>
     </row>
-    <row r="418" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A418" s="1"/>
       <c r="B418" s="1"/>
       <c r="C418" s="1"/>
@@ -4879,7 +4895,7 @@
       <c r="G418" s="1"/>
       <c r="H418" s="1"/>
     </row>
-    <row r="419" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A419" s="1"/>
       <c r="B419" s="1"/>
       <c r="C419" s="1"/>
@@ -4889,7 +4905,7 @@
       <c r="G419" s="1"/>
       <c r="H419" s="1"/>
     </row>
-    <row r="420" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A420" s="1"/>
       <c r="B420" s="1"/>
       <c r="C420" s="1"/>
@@ -4899,7 +4915,7 @@
       <c r="G420" s="1"/>
       <c r="H420" s="1"/>
     </row>
-    <row r="421" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A421" s="1"/>
       <c r="B421" s="1"/>
       <c r="C421" s="1"/>
@@ -4909,7 +4925,7 @@
       <c r="G421" s="1"/>
       <c r="H421" s="1"/>
     </row>
-    <row r="422" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A422" s="1"/>
       <c r="B422" s="1"/>
       <c r="C422" s="1"/>
@@ -4919,7 +4935,7 @@
       <c r="G422" s="1"/>
       <c r="H422" s="1"/>
     </row>
-    <row r="423" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A423" s="1"/>
       <c r="B423" s="1"/>
       <c r="C423" s="1"/>
@@ -4929,7 +4945,7 @@
       <c r="G423" s="1"/>
       <c r="H423" s="1"/>
     </row>
-    <row r="424" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A424" s="1"/>
       <c r="B424" s="1"/>
       <c r="C424" s="1"/>
@@ -4939,7 +4955,7 @@
       <c r="G424" s="1"/>
       <c r="H424" s="1"/>
     </row>
-    <row r="425" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A425" s="1"/>
       <c r="B425" s="1"/>
       <c r="C425" s="1"/>
@@ -4949,7 +4965,7 @@
       <c r="G425" s="1"/>
       <c r="H425" s="1"/>
     </row>
-    <row r="426" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A426" s="1"/>
       <c r="B426" s="1"/>
       <c r="C426" s="1"/>
@@ -4959,7 +4975,7 @@
       <c r="G426" s="1"/>
       <c r="H426" s="1"/>
     </row>
-    <row r="427" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A427" s="1"/>
       <c r="B427" s="1"/>
       <c r="C427" s="1"/>
@@ -4969,7 +4985,7 @@
       <c r="G427" s="1"/>
       <c r="H427" s="1"/>
     </row>
-    <row r="428" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A428" s="1"/>
       <c r="B428" s="1"/>
       <c r="C428" s="1"/>
@@ -4979,7 +4995,7 @@
       <c r="G428" s="1"/>
       <c r="H428" s="1"/>
     </row>
-    <row r="429" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A429" s="1"/>
       <c r="B429" s="1"/>
       <c r="C429" s="1"/>
@@ -4989,7 +5005,7 @@
       <c r="G429" s="1"/>
       <c r="H429" s="1"/>
     </row>
-    <row r="430" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A430" s="1"/>
       <c r="B430" s="1"/>
       <c r="C430" s="1"/>
@@ -4999,7 +5015,7 @@
       <c r="G430" s="1"/>
       <c r="H430" s="1"/>
     </row>
-    <row r="431" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A431" s="1"/>
       <c r="B431" s="1"/>
       <c r="C431" s="1"/>
@@ -5009,7 +5025,7 @@
       <c r="G431" s="1"/>
       <c r="H431" s="1"/>
     </row>
-    <row r="432" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A432" s="1"/>
       <c r="B432" s="1"/>
       <c r="C432" s="1"/>
@@ -5019,7 +5035,7 @@
       <c r="G432" s="1"/>
       <c r="H432" s="1"/>
     </row>
-    <row r="433" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A433" s="1"/>
       <c r="B433" s="1"/>
       <c r="C433" s="1"/>
@@ -5029,7 +5045,7 @@
       <c r="G433" s="1"/>
       <c r="H433" s="1"/>
     </row>
-    <row r="434" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A434" s="1"/>
       <c r="B434" s="1"/>
       <c r="C434" s="1"/>
@@ -5039,7 +5055,7 @@
       <c r="G434" s="1"/>
       <c r="H434" s="1"/>
     </row>
-    <row r="435" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A435" s="1"/>
       <c r="B435" s="1"/>
       <c r="C435" s="1"/>
@@ -5049,7 +5065,7 @@
       <c r="G435" s="1"/>
       <c r="H435" s="1"/>
     </row>
-    <row r="436" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A436" s="1"/>
       <c r="B436" s="1"/>
       <c r="C436" s="1"/>
@@ -5059,7 +5075,7 @@
       <c r="G436" s="1"/>
       <c r="H436" s="1"/>
     </row>
-    <row r="437" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A437" s="1"/>
       <c r="B437" s="1"/>
       <c r="C437" s="1"/>
@@ -5069,7 +5085,7 @@
       <c r="G437" s="1"/>
       <c r="H437" s="1"/>
     </row>
-    <row r="438" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A438" s="1"/>
       <c r="B438" s="1"/>
       <c r="C438" s="1"/>
@@ -5079,7 +5095,7 @@
       <c r="G438" s="1"/>
       <c r="H438" s="1"/>
     </row>
-    <row r="439" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A439" s="1"/>
       <c r="B439" s="1"/>
       <c r="C439" s="1"/>
@@ -5089,7 +5105,7 @@
       <c r="G439" s="1"/>
       <c r="H439" s="1"/>
     </row>
-    <row r="440" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A440" s="1"/>
       <c r="B440" s="1"/>
       <c r="C440" s="1"/>
@@ -5099,7 +5115,7 @@
       <c r="G440" s="1"/>
       <c r="H440" s="1"/>
     </row>
-    <row r="441" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A441" s="1"/>
       <c r="B441" s="1"/>
       <c r="C441" s="1"/>
@@ -5109,7 +5125,7 @@
       <c r="G441" s="1"/>
       <c r="H441" s="1"/>
     </row>
-    <row r="442" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A442" s="1"/>
       <c r="B442" s="1"/>
       <c r="C442" s="1"/>
@@ -5119,7 +5135,7 @@
       <c r="G442" s="1"/>
       <c r="H442" s="1"/>
     </row>
-    <row r="443" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A443" s="1"/>
       <c r="B443" s="1"/>
       <c r="C443" s="1"/>
@@ -5129,7 +5145,7 @@
       <c r="G443" s="1"/>
       <c r="H443" s="1"/>
     </row>
-    <row r="444" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A444" s="1"/>
       <c r="B444" s="1"/>
       <c r="C444" s="1"/>
@@ -5139,7 +5155,7 @@
       <c r="G444" s="1"/>
       <c r="H444" s="1"/>
     </row>
-    <row r="445" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A445" s="1"/>
       <c r="B445" s="1"/>
       <c r="C445" s="1"/>
@@ -5149,7 +5165,7 @@
       <c r="G445" s="1"/>
       <c r="H445" s="1"/>
     </row>
-    <row r="446" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A446" s="1"/>
       <c r="B446" s="1"/>
       <c r="C446" s="1"/>
@@ -5159,7 +5175,7 @@
       <c r="G446" s="1"/>
       <c r="H446" s="1"/>
     </row>
-    <row r="447" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A447" s="1"/>
       <c r="B447" s="1"/>
       <c r="C447" s="1"/>
@@ -5169,7 +5185,7 @@
       <c r="G447" s="1"/>
       <c r="H447" s="1"/>
     </row>
-    <row r="448" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A448" s="1"/>
       <c r="B448" s="1"/>
       <c r="C448" s="1"/>
@@ -5179,7 +5195,7 @@
       <c r="G448" s="1"/>
       <c r="H448" s="1"/>
     </row>
-    <row r="449" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A449" s="1"/>
       <c r="B449" s="1"/>
       <c r="C449" s="1"/>
@@ -5189,7 +5205,7 @@
       <c r="G449" s="1"/>
       <c r="H449" s="1"/>
     </row>
-    <row r="450" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A450" s="1"/>
       <c r="B450" s="1"/>
       <c r="C450" s="1"/>
@@ -5199,7 +5215,7 @@
       <c r="G450" s="1"/>
       <c r="H450" s="1"/>
     </row>
-    <row r="451" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A451" s="1"/>
       <c r="B451" s="1"/>
       <c r="C451" s="1"/>
@@ -5209,7 +5225,7 @@
       <c r="G451" s="1"/>
       <c r="H451" s="1"/>
     </row>
-    <row r="452" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A452" s="1"/>
       <c r="B452" s="1"/>
       <c r="C452" s="1"/>
@@ -5219,7 +5235,7 @@
       <c r="G452" s="1"/>
       <c r="H452" s="1"/>
     </row>
-    <row r="453" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A453" s="1"/>
       <c r="B453" s="1"/>
       <c r="C453" s="1"/>
@@ -5229,7 +5245,7 @@
       <c r="G453" s="1"/>
       <c r="H453" s="1"/>
     </row>
-    <row r="454" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A454" s="1"/>
       <c r="B454" s="1"/>
       <c r="C454" s="1"/>
@@ -5239,7 +5255,7 @@
       <c r="G454" s="1"/>
       <c r="H454" s="1"/>
     </row>
-    <row r="455" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A455" s="1"/>
       <c r="B455" s="1"/>
       <c r="C455" s="1"/>
@@ -5249,7 +5265,7 @@
       <c r="G455" s="1"/>
       <c r="H455" s="1"/>
     </row>
-    <row r="456" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A456" s="1"/>
       <c r="B456" s="1"/>
       <c r="C456" s="1"/>
@@ -5259,7 +5275,7 @@
       <c r="G456" s="1"/>
       <c r="H456" s="1"/>
     </row>
-    <row r="457" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A457" s="1"/>
       <c r="B457" s="1"/>
       <c r="C457" s="1"/>
@@ -5269,7 +5285,7 @@
       <c r="G457" s="1"/>
       <c r="H457" s="1"/>
     </row>
-    <row r="458" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A458" s="1"/>
       <c r="B458" s="1"/>
       <c r="C458" s="1"/>
@@ -5279,7 +5295,7 @@
       <c r="G458" s="1"/>
       <c r="H458" s="1"/>
     </row>
-    <row r="459" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A459" s="1"/>
       <c r="B459" s="1"/>
       <c r="C459" s="1"/>
@@ -5289,7 +5305,7 @@
       <c r="G459" s="1"/>
       <c r="H459" s="1"/>
     </row>
-    <row r="460" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A460" s="1"/>
       <c r="B460" s="1"/>
       <c r="C460" s="1"/>
@@ -5299,7 +5315,7 @@
       <c r="G460" s="1"/>
       <c r="H460" s="1"/>
     </row>
-    <row r="461" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A461" s="1"/>
       <c r="B461" s="1"/>
       <c r="C461" s="1"/>
@@ -5309,7 +5325,7 @@
       <c r="G461" s="1"/>
       <c r="H461" s="1"/>
     </row>
-    <row r="462" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A462" s="1"/>
       <c r="B462" s="1"/>
       <c r="C462" s="1"/>
@@ -5319,7 +5335,7 @@
       <c r="G462" s="1"/>
       <c r="H462" s="1"/>
     </row>
-    <row r="463" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A463" s="1"/>
       <c r="B463" s="1"/>
       <c r="C463" s="1"/>
@@ -5329,7 +5345,7 @@
       <c r="G463" s="1"/>
       <c r="H463" s="1"/>
     </row>
-    <row r="464" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A464" s="1"/>
       <c r="B464" s="1"/>
       <c r="C464" s="1"/>
@@ -5339,7 +5355,7 @@
       <c r="G464" s="1"/>
       <c r="H464" s="1"/>
     </row>
-    <row r="465" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A465" s="1"/>
       <c r="B465" s="1"/>
       <c r="C465" s="1"/>
@@ -5349,7 +5365,7 @@
       <c r="G465" s="1"/>
       <c r="H465" s="1"/>
     </row>
-    <row r="466" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A466" s="1"/>
       <c r="B466" s="1"/>
       <c r="C466" s="1"/>
@@ -5359,7 +5375,7 @@
       <c r="G466" s="1"/>
       <c r="H466" s="1"/>
     </row>
-    <row r="467" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A467" s="1"/>
       <c r="B467" s="1"/>
       <c r="C467" s="1"/>
@@ -5369,7 +5385,7 @@
       <c r="G467" s="1"/>
       <c r="H467" s="1"/>
     </row>
-    <row r="468" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A468" s="1"/>
       <c r="B468" s="1"/>
       <c r="C468" s="1"/>
@@ -5379,7 +5395,7 @@
       <c r="G468" s="1"/>
       <c r="H468" s="1"/>
     </row>
-    <row r="469" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A469" s="1"/>
       <c r="B469" s="1"/>
       <c r="C469" s="1"/>
@@ -5389,7 +5405,7 @@
       <c r="G469" s="1"/>
       <c r="H469" s="1"/>
     </row>
-    <row r="470" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A470" s="1"/>
       <c r="B470" s="1"/>
       <c r="C470" s="1"/>
@@ -5399,7 +5415,7 @@
       <c r="G470" s="1"/>
       <c r="H470" s="1"/>
     </row>
-    <row r="471" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A471" s="1"/>
       <c r="B471" s="1"/>
       <c r="C471" s="1"/>
@@ -5409,7 +5425,7 @@
       <c r="G471" s="1"/>
       <c r="H471" s="1"/>
     </row>
-    <row r="472" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A472" s="1"/>
       <c r="B472" s="1"/>
       <c r="C472" s="1"/>
@@ -5419,7 +5435,7 @@
       <c r="G472" s="1"/>
       <c r="H472" s="1"/>
     </row>
-    <row r="473" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A473" s="1"/>
       <c r="B473" s="1"/>
       <c r="C473" s="1"/>
@@ -5429,7 +5445,7 @@
       <c r="G473" s="1"/>
       <c r="H473" s="1"/>
     </row>
-    <row r="474" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A474" s="1"/>
       <c r="B474" s="1"/>
       <c r="C474" s="1"/>
@@ -5439,7 +5455,7 @@
       <c r="G474" s="1"/>
       <c r="H474" s="1"/>
     </row>
-    <row r="475" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A475" s="1"/>
       <c r="B475" s="1"/>
       <c r="C475" s="1"/>
@@ -5449,7 +5465,7 @@
       <c r="G475" s="1"/>
       <c r="H475" s="1"/>
     </row>
-    <row r="476" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A476" s="1"/>
       <c r="B476" s="1"/>
       <c r="C476" s="1"/>
@@ -5459,7 +5475,7 @@
       <c r="G476" s="1"/>
       <c r="H476" s="1"/>
     </row>
-    <row r="477" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A477" s="1"/>
       <c r="B477" s="1"/>
       <c r="C477" s="1"/>
@@ -5469,7 +5485,7 @@
       <c r="G477" s="1"/>
       <c r="H477" s="1"/>
     </row>
-    <row r="478" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A478" s="1"/>
       <c r="B478" s="1"/>
       <c r="C478" s="1"/>
@@ -5479,7 +5495,7 @@
       <c r="G478" s="1"/>
       <c r="H478" s="1"/>
     </row>
-    <row r="479" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A479" s="1"/>
       <c r="B479" s="1"/>
       <c r="C479" s="1"/>
@@ -5489,7 +5505,7 @@
       <c r="G479" s="1"/>
       <c r="H479" s="1"/>
     </row>
-    <row r="480" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A480" s="1"/>
       <c r="B480" s="1"/>
       <c r="C480" s="1"/>
@@ -5499,7 +5515,7 @@
       <c r="G480" s="1"/>
       <c r="H480" s="1"/>
     </row>
-    <row r="481" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A481" s="1"/>
       <c r="B481" s="1"/>
       <c r="C481" s="1"/>
@@ -5509,7 +5525,7 @@
       <c r="G481" s="1"/>
       <c r="H481" s="1"/>
     </row>
-    <row r="482" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A482" s="1"/>
       <c r="B482" s="1"/>
       <c r="C482" s="1"/>
@@ -5519,7 +5535,7 @@
       <c r="G482" s="1"/>
       <c r="H482" s="1"/>
     </row>
-    <row r="483" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A483" s="1"/>
       <c r="B483" s="1"/>
       <c r="C483" s="1"/>
@@ -5529,7 +5545,7 @@
       <c r="G483" s="1"/>
       <c r="H483" s="1"/>
     </row>
-    <row r="484" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A484" s="1"/>
       <c r="B484" s="1"/>
       <c r="C484" s="1"/>
@@ -5539,7 +5555,7 @@
       <c r="G484" s="1"/>
       <c r="H484" s="1"/>
     </row>
-    <row r="485" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A485" s="1"/>
       <c r="B485" s="1"/>
       <c r="C485" s="1"/>
@@ -5549,7 +5565,7 @@
       <c r="G485" s="1"/>
       <c r="H485" s="1"/>
     </row>
-    <row r="486" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A486" s="1"/>
       <c r="B486" s="1"/>
       <c r="C486" s="1"/>
@@ -5559,7 +5575,7 @@
       <c r="G486" s="1"/>
       <c r="H486" s="1"/>
     </row>
-    <row r="487" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A487" s="1"/>
       <c r="B487" s="1"/>
       <c r="C487" s="1"/>
@@ -5569,7 +5585,7 @@
       <c r="G487" s="1"/>
       <c r="H487" s="1"/>
     </row>
-    <row r="488" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A488" s="1"/>
       <c r="B488" s="1"/>
       <c r="C488" s="1"/>
@@ -5579,7 +5595,7 @@
       <c r="G488" s="1"/>
       <c r="H488" s="1"/>
     </row>
-    <row r="489" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A489" s="1"/>
       <c r="B489" s="1"/>
       <c r="C489" s="1"/>
@@ -5589,7 +5605,7 @@
       <c r="G489" s="1"/>
       <c r="H489" s="1"/>
     </row>
-    <row r="490" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A490" s="1"/>
       <c r="B490" s="1"/>
       <c r="C490" s="1"/>
@@ -5599,7 +5615,7 @@
       <c r="G490" s="1"/>
       <c r="H490" s="1"/>
     </row>
-    <row r="491" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A491" s="1"/>
       <c r="B491" s="1"/>
       <c r="C491" s="1"/>
@@ -5609,7 +5625,7 @@
       <c r="G491" s="1"/>
       <c r="H491" s="1"/>
     </row>
-    <row r="492" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A492" s="1"/>
       <c r="B492" s="1"/>
       <c r="C492" s="1"/>
@@ -5619,7 +5635,7 @@
       <c r="G492" s="1"/>
       <c r="H492" s="1"/>
     </row>
-    <row r="493" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A493" s="1"/>
       <c r="B493" s="1"/>
       <c r="C493" s="1"/>
@@ -5629,7 +5645,7 @@
       <c r="G493" s="1"/>
       <c r="H493" s="1"/>
     </row>
-    <row r="494" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A494" s="1"/>
       <c r="B494" s="1"/>
       <c r="C494" s="1"/>
@@ -5639,7 +5655,7 @@
       <c r="G494" s="1"/>
       <c r="H494" s="1"/>
     </row>
-    <row r="495" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A495" s="1"/>
       <c r="B495" s="1"/>
       <c r="C495" s="1"/>
@@ -5649,7 +5665,7 @@
       <c r="G495" s="1"/>
       <c r="H495" s="1"/>
     </row>
-    <row r="496" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A496" s="1"/>
       <c r="B496" s="1"/>
       <c r="C496" s="1"/>
@@ -5659,7 +5675,7 @@
       <c r="G496" s="1"/>
       <c r="H496" s="1"/>
     </row>
-    <row r="497" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A497" s="1"/>
       <c r="B497" s="1"/>
       <c r="C497" s="1"/>
@@ -5669,7 +5685,7 @@
       <c r="G497" s="1"/>
       <c r="H497" s="1"/>
     </row>
-    <row r="498" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A498" s="1"/>
       <c r="B498" s="1"/>
       <c r="C498" s="1"/>
@@ -5679,7 +5695,7 @@
       <c r="G498" s="1"/>
       <c r="H498" s="1"/>
     </row>
-    <row r="499" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A499" s="1"/>
       <c r="B499" s="1"/>
       <c r="C499" s="1"/>
@@ -5689,7 +5705,7 @@
       <c r="G499" s="1"/>
       <c r="H499" s="1"/>
     </row>
-    <row r="500" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A500" s="1"/>
       <c r="B500" s="1"/>
       <c r="C500" s="1"/>
